--- a/Practic1_2024/wwwroot/downloads/input.xlsx
+++ b/Practic1_2024/wwwroot/downloads/input.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gololobov\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexey_\Desktop\Gololobov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB978B8-8998-4503-BA4D-37AD44BB5DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B476A3AD-1375-4A7E-B185-E11820D6E6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{ED7C02D1-A13F-49BF-81FB-F47D82760242}"/>
   </bookViews>
   <sheets>
     <sheet name="Categories" sheetId="7" r:id="rId1"/>
-    <sheet name="Users" sheetId="9" r:id="rId2"/>
-    <sheet name="Brands" sheetId="2" r:id="rId3"/>
+    <sheet name="Brands" sheetId="13" r:id="rId2"/>
+    <sheet name="Users" sheetId="9" r:id="rId3"/>
     <sheet name="Smartphones" sheetId="8" r:id="rId4"/>
     <sheet name="SmartphoneCharacteristics " sheetId="10" r:id="rId5"/>
     <sheet name="Orders" sheetId="11" r:id="rId6"/>
@@ -33,8 +33,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
   <si>
     <t>Name</t>
   </si>
@@ -104,9 +102,6 @@
     <t>A15 Bionic</t>
   </si>
   <si>
-    <t>Kirin 990</t>
-  </si>
-  <si>
     <t>OnePlus</t>
   </si>
   <si>
@@ -269,31 +264,13 @@
     <t>6.1 дюйма</t>
   </si>
   <si>
-    <t>Snapdragon 8</t>
-  </si>
-  <si>
     <t>Операционная система</t>
   </si>
   <si>
-    <t>Android 13</t>
-  </si>
-  <si>
-    <t>iOS 16</t>
-  </si>
-  <si>
-    <t>6.81 дюйма</t>
-  </si>
-  <si>
     <t>Snapdragon 888</t>
   </si>
   <si>
     <t>Android 11</t>
-  </si>
-  <si>
-    <t>Android 10</t>
-  </si>
-  <si>
-    <t>6.7 дюйма</t>
   </si>
   <si>
     <t>TotalPrice</t>
@@ -366,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -377,7 +354,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -715,7 +697,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,22 +717,22 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -759,149 +741,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF101E1-3EBC-48FF-8B2A-F11B91A2781F}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC9F638-BFCE-4671-BC8C-7AEEA567BCAF}">
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2">
-        <v>12345</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2">
-        <v>79991234567</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2">
-        <v>54321</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="2">
-        <v>79992345678</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="2">
-        <v>67890</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2">
-        <v>79993456789</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="2">
-        <v>11223</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="2">
-        <v>79994567890</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44556</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="2">
-        <v>79995678901</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -909,96 +786,139 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CA1C20-44E2-4CCB-8333-F4D84B5E7A19}">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF101E1-3EBC-48FF-8B2A-F11B91A2781F}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
+      <selection activeCell="E6" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12345</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="4">
+        <v>79991234567</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2">
+        <v>54321</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4">
+        <v>79992345678</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2">
+        <v>67890</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4">
+        <v>79993456789</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2">
+        <v>11223</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4">
+        <v>79994567890</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44556</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="4">
+        <v>79995678901</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1009,12 +929,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36B7A86-21FA-4471-87B3-ED4B7604A1C5}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B2:B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -1028,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1037,182 +959,182 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>89999</v>
       </c>
       <c r="E2" s="2">
         <v>2023</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <v>109999</v>
       </c>
       <c r="E3" s="2">
         <v>2022</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>29999</v>
       </c>
       <c r="E4" s="2">
         <v>2021</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <v>49999</v>
       </c>
       <c r="E5" s="2">
         <v>2020</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>74999</v>
       </c>
       <c r="E6" s="2">
         <v>2021</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1222,188 +1144,78 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD05BBB8-25DD-445A-8EF5-98F1E25E0FA0}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="A1:C16"/>
+      <selection activeCell="A6" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
+      <c r="A3" s="4">
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
+      <c r="A4" s="4">
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
+      <c r="A5" s="4">
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>2</v>
+      <c r="A6" s="4">
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1416,11 +1228,13 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="A1:E6"/>
+      <selection activeCell="A6" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1430,27 +1244,27 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
         <v>89999</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D2" s="3">
         <v>45292</v>
@@ -1460,14 +1274,14 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="5">
         <v>109999</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D3" s="3">
         <v>45323</v>
@@ -1477,14 +1291,14 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>29999</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D4" s="3">
         <v>45352</v>
@@ -1494,14 +1308,14 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <v>49999</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D5" s="3">
         <v>45383</v>
@@ -1511,14 +1325,14 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <v>74999</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D6" s="3">
         <v>45413</v>
@@ -1537,92 +1351,95 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D6" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
         <v>89999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
         <v>109999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
         <v>29999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
         <v>49999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>5</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
         <v>74999</v>
       </c>
     </row>

--- a/Practic1_2024/wwwroot/downloads/input.xlsx
+++ b/Practic1_2024/wwwroot/downloads/input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexey_\Desktop\Gololobov\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\source\repos\Practic1_2024\Practic1_2024\wwwroot\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B476A3AD-1375-4A7E-B185-E11820D6E6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D544DA10-494D-440B-A9C3-3B89A751B314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{ED7C02D1-A13F-49BF-81FB-F47D82760242}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Brands" sheetId="13" r:id="rId2"/>
     <sheet name="Users" sheetId="9" r:id="rId3"/>
     <sheet name="Smartphones" sheetId="8" r:id="rId4"/>
-    <sheet name="SmartphoneCharacteristics " sheetId="10" r:id="rId5"/>
+    <sheet name="SmartphoneCharacteristics" sheetId="10" r:id="rId5"/>
     <sheet name="Orders" sheetId="11" r:id="rId6"/>
     <sheet name="OrderItems" sheetId="12" r:id="rId7"/>
   </sheets>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -292,9 +292,6 @@
   </si>
   <si>
     <t>В процессе</t>
-  </si>
-  <si>
-    <t>ProductId</t>
   </si>
   <si>
     <t>Quantity</t>
@@ -1146,11 +1143,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD05BBB8-25DD-445A-8EF5-98F1E25E0FA0}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A2:A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1351,7 +1349,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D2:D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,10 +1362,10 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
